--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject6.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject6.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0.88531050062956573</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0.73488560221574795</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -185,7 +185,7 @@
         <v>0</v>
       </c>
       <c r="T1" s="0">
-        <v>0</v>
+        <v>0.99666453494355323</v>
       </c>
       <c r="U1" s="0">
         <v>0</v>
@@ -305,7 +305,7 @@
         <v>0</v>
       </c>
       <c r="BH1" s="0">
-        <v>0</v>
+        <v>0.92514520478040452</v>
       </c>
       <c r="BI1" s="0">
         <v>0</v>
@@ -326,7 +326,7 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0.79573094850567816</v>
       </c>
       <c r="BP1" s="0">
         <v>0</v>
@@ -334,16 +334,16 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0.54740494782360394</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>0.64144858164589369</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0.501117240916364</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -421,7 +421,7 @@
         <v>0</v>
       </c>
       <c r="AD2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="0">
         <v>0</v>
@@ -505,7 +505,7 @@
         <v>0</v>
       </c>
       <c r="BF2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG2" s="0">
         <v>0</v>
@@ -540,19 +540,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0.89109567700462367</v>
       </c>
       <c r="B3" s="0">
-        <v>0</v>
+        <v>0.67530291010070598</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0</v>
+        <v>0.93139852274727675</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="0">
-        <v>0</v>
+        <v>0.55025271847923962</v>
       </c>
       <c r="O3" s="0">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="BC3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="0">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0.96075970327740723</v>
       </c>
       <c r="C4" s="0">
-        <v>0</v>
+        <v>0.99458008699367817</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0.90645144399747857</v>
       </c>
       <c r="F4" s="0">
-        <v>0</v>
+        <v>0.63424918341278258</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -920,13 +920,13 @@
         <v>0</v>
       </c>
       <c r="BG4" s="0">
-        <v>0</v>
+        <v>0.52109775805129799</v>
       </c>
       <c r="BH4" s="0">
         <v>0</v>
       </c>
       <c r="BI4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ4" s="0">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0.5813240401275459</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0.63138918047947978</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0.65318026502646143</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="BC5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="0">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="BI5" s="0">
-        <v>0</v>
+        <v>0.91463519754082434</v>
       </c>
       <c r="BJ5" s="0">
         <v>0</v>
@@ -1167,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0</v>
+        <v>0.95304037942569453</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0.88812135821974258</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0.57483175394979336</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="BM6" s="0">
-        <v>0</v>
+        <v>0.66350196990168486</v>
       </c>
       <c r="BN6" s="0">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0.51969705738148342</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0.77757825191047147</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0.78505219462538922</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="0">
-        <v>0</v>
+        <v>0.50344117348245987</v>
       </c>
       <c r="X7" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0.76067272016598997</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0.77085412752634319</v>
       </c>
       <c r="J8" s="0">
-        <v>0</v>
+        <v>0.73167952992251584</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="AZ8" s="0">
-        <v>0</v>
+        <v>0.99027759938293314</v>
       </c>
       <c r="BA8" s="0">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="BM8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="0">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0.54767073972747493</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0.78585323816119779</v>
       </c>
       <c r="K9" s="0">
-        <v>0</v>
+        <v>0.59440384699857507</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="R9" s="0">
-        <v>0</v>
+        <v>0.87454913667839473</v>
       </c>
       <c r="S9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="0">
         <v>0</v>
@@ -1887,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="AL9" s="0">
-        <v>0</v>
+        <v>0.58575603490936901</v>
       </c>
       <c r="AM9" s="0">
         <v>0</v>
@@ -2003,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0</v>
+        <v>0.98667463951463241</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0.89799542238828112</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>0</v>
+        <v>0.56090598785421164</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="Z10" s="0">
-        <v>0</v>
+        <v>0.53050730952217406</v>
       </c>
       <c r="AA10" s="0">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="AW10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX10" s="0">
         <v>0</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="BK10" s="0">
-        <v>0</v>
+        <v>0.72875502172492057</v>
       </c>
       <c r="BL10" s="0">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="BP10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2212,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0</v>
+        <v>0.56813774920950766</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="0">
-        <v>0</v>
+        <v>0.79572621674017818</v>
       </c>
       <c r="X11" s="0">
         <v>0</v>
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="BA11" s="0">
-        <v>0</v>
+        <v>0.69185577353378402</v>
       </c>
       <c r="BB11" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0</v>
+        <v>0.6434675435793018</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>0</v>
+        <v>0.8183789176202142</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0.54391952732006521</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="0">
-        <v>0</v>
+        <v>0.68916103636760195</v>
       </c>
       <c r="AC12" s="0">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="AI12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="0">
         <v>0</v>
@@ -2630,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>0</v>
+        <v>0.53335640489422353</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0.58994256845726167</v>
       </c>
       <c r="O13" s="0">
-        <v>1</v>
+        <v>0.64629209566089185</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="0">
-        <v>0</v>
+        <v>0.56923778774630429</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0.78103138439626008</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0.94152123273478794</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0.70644075818260288</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="0">
-        <v>0</v>
+        <v>0.60723711053073814</v>
       </c>
       <c r="AJ14" s="0">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="AZ14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA14" s="0">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>0.98180200849469546</v>
       </c>
       <c r="N15" s="0">
         <v>0</v>
@@ -3057,13 +3057,13 @@
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0.5924712300880377</v>
       </c>
       <c r="R15" s="0">
-        <v>0</v>
+        <v>0.52951929457875235</v>
       </c>
       <c r="S15" s="0">
         <v>0</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="BD15" s="0">
-        <v>0</v>
+        <v>0.9671643501706193</v>
       </c>
       <c r="BE15" s="0">
         <v>0</v>
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0.952223360151076</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0.84642255245641751</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="0">
-        <v>0</v>
+        <v>0.66909890263552652</v>
       </c>
       <c r="AD16" s="0">
         <v>0</v>
@@ -3466,16 +3466,16 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0.68806104569387183</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0.89256510802341005</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>0</v>
+        <v>0.80345875171023706</v>
       </c>
       <c r="S17" s="0">
         <v>0</v>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="0">
         <v>0</v>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="AM17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN17" s="0">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="AT17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU17" s="0">
         <v>0</v>
@@ -3616,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="BM17" s="0">
-        <v>0</v>
+        <v>0.55529848192117348</v>
       </c>
       <c r="BN17" s="0">
         <v>0</v>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="0">
-        <v>0</v>
+        <v>0.55080956543381077</v>
       </c>
       <c r="J18" s="0">
         <v>0</v>
@@ -3672,22 +3672,22 @@
         <v>0</v>
       </c>
       <c r="O18" s="0">
-        <v>0</v>
+        <v>0.78537975449466302</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>0</v>
+        <v>0.53127389975059147</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0.52307753703060766</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="AE18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="0">
         <v>0</v>
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="AT18" s="0">
-        <v>0</v>
+        <v>0.66821789769189177</v>
       </c>
       <c r="AU18" s="0">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="0">
         <v>0</v>
@@ -3887,16 +3887,16 @@
         <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0.75260658497422717</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0.6127663893817733</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0.79175368545892444</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3950,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="AM19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN19" s="0">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="BL19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM19" s="0">
         <v>0</v>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0</v>
+        <v>0.99733591644918662</v>
       </c>
       <c r="B20" s="0">
         <v>0</v>
@@ -4093,16 +4093,16 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0.55806468367571704</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0.5610538988264111</v>
       </c>
       <c r="V20" s="0">
         <v>0</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="AB20" s="0">
-        <v>0</v>
+        <v>0.71334420510313312</v>
       </c>
       <c r="AC20" s="0">
         <v>0</v>
@@ -4302,19 +4302,19 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0.63376421008245476</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0.90750933236109099</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0.63935883706103491</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.9157184995986396</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4416,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="BE21" s="0">
-        <v>0</v>
+        <v>0.71072238679846045</v>
       </c>
       <c r="BF21" s="0">
         <v>0</v>
@@ -4514,16 +4514,16 @@
         <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0.69450048230431305</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0.88604890167777928</v>
       </c>
       <c r="X22" s="0">
-        <v>0</v>
+        <v>0.77271200628714087</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4532,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="AA22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="0">
         <v>0</v>
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="0">
-        <v>0</v>
+        <v>0.57954532768864686</v>
       </c>
       <c r="H23" s="0">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="0">
-        <v>0</v>
+        <v>0.78191953807303216</v>
       </c>
       <c r="L23" s="0">
         <v>0</v>
@@ -4720,16 +4720,16 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.87642376297126079</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0.66188314355925426</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="0">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="0">
-        <v>0</v>
+        <v>0.74373091572497607</v>
       </c>
       <c r="AD23" s="0">
         <v>0</v>
@@ -4753,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="AF23" s="0">
-        <v>0</v>
+        <v>0.64124658824381098</v>
       </c>
       <c r="AG23" s="0">
         <v>0</v>
@@ -4762,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="AI23" s="0">
-        <v>0</v>
+        <v>0.59834815792857721</v>
       </c>
       <c r="AJ23" s="0">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="BO23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP23" s="0">
         <v>0</v>
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="0">
         <v>0</v>
@@ -4929,16 +4929,16 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0</v>
+        <v>0.78397457811843063</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="0">
         <v>0</v>
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="AG24" s="0">
-        <v>0</v>
+        <v>0.88214333377794141</v>
       </c>
       <c r="AH24" s="0">
         <v>0</v>
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="AV24" s="0">
-        <v>0</v>
+        <v>0.64160327525786975</v>
       </c>
       <c r="AW24" s="0">
         <v>0</v>
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="BC24" s="0">
-        <v>0</v>
+        <v>0.57254219664857797</v>
       </c>
       <c r="BD24" s="0">
         <v>0</v>
@@ -5141,16 +5141,16 @@
         <v>0</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>0</v>
+        <v>0.66876372590576272</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="AM25" s="0">
-        <v>0</v>
+        <v>0.93305807452199818</v>
       </c>
       <c r="AN25" s="0">
         <v>0</v>
@@ -5195,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="AP25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ25" s="0">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="BB25" s="0">
-        <v>0</v>
+        <v>0.62302819078241622</v>
       </c>
       <c r="BC25" s="0">
         <v>0</v>
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="0">
-        <v>0</v>
+        <v>0.84210377983060969</v>
       </c>
       <c r="K26" s="0">
         <v>0</v>
@@ -5350,16 +5350,16 @@
         <v>0</v>
       </c>
       <c r="Y26" s="0">
-        <v>0</v>
+        <v>0.80971444677970439</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0.89534648739715172</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="V27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27" s="0">
         <v>0</v>
@@ -5556,19 +5556,19 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0.74498099451709943</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0.98802646416572559</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0.79383426188138229</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5723,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="0">
-        <v>0</v>
+        <v>0.87316050407382551</v>
       </c>
       <c r="M28" s="0">
         <v>0</v>
@@ -5747,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="0">
-        <v>0</v>
+        <v>0.99217558660185012</v>
       </c>
       <c r="U28" s="0">
         <v>0</v>
@@ -5765,19 +5765,19 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0.7800176263237879</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5828,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="AU28" s="0">
-        <v>0</v>
+        <v>0.59659398381469986</v>
       </c>
       <c r="AV28" s="0">
         <v>0</v>
@@ -5941,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="0">
-        <v>0</v>
+        <v>0.7188194214105621</v>
       </c>
       <c r="Q29" s="0">
         <v>0</v>
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="0">
-        <v>0</v>
+        <v>0.78657466555481204</v>
       </c>
       <c r="X29" s="0">
         <v>0</v>
@@ -5974,19 +5974,19 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0.8234207225900585</v>
       </c>
       <c r="AB29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0.92111646015200899</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6105,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="0">
         <v>0</v>
@@ -6183,19 +6183,19 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0.98698669174061182</v>
       </c>
       <c r="AF30" s="0">
-        <v>0</v>
+        <v>0.87084412746744921</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6210,10 +6210,10 @@
         <v>0</v>
       </c>
       <c r="AK30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="0">
         <v>0</v>
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="AT30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU30" s="0">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="R31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31" s="0">
         <v>0</v>
@@ -6392,19 +6392,19 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0.64295141484022145</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0.51956538363720506</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0.79455270016985069</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0.66055691379295112</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6449,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="AV31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW31" s="0">
         <v>0</v>
@@ -6580,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="0">
-        <v>0</v>
+        <v>0.63454532766510019</v>
       </c>
       <c r="X32" s="0">
         <v>0</v>
@@ -6601,19 +6601,19 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>0</v>
+        <v>0.97377271948247368</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0.64674298527028173</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0.92463913776961626</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0.71996047878832437</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6706,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="BM32" s="0">
-        <v>0</v>
+        <v>0.90158014801775721</v>
       </c>
       <c r="BN32" s="0">
         <v>0</v>
@@ -6789,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="0">
-        <v>0</v>
+        <v>0.97040099149278591</v>
       </c>
       <c r="Y33" s="0">
         <v>0</v>
@@ -6810,19 +6810,19 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0.56034975604994508</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0.78876378153250204</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>0</v>
+        <v>0.97856398805539757</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6867,7 +6867,7 @@
         <v>0</v>
       </c>
       <c r="AX33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY33" s="0">
         <v>0</v>
@@ -7019,22 +7019,22 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0.99985049390785963</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0.50796778821360555</v>
       </c>
       <c r="AJ34" s="0">
         <v>0</v>
       </c>
       <c r="AK34" s="0">
-        <v>1</v>
+        <v>0.95771731859823572</v>
       </c>
       <c r="AL34" s="0">
         <v>0</v>
@@ -7079,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="AZ34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA34" s="0">
         <v>0</v>
@@ -7165,13 +7165,13 @@
         <v>0</v>
       </c>
       <c r="L35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" s="0">
         <v>0</v>
       </c>
       <c r="N35" s="0">
-        <v>0</v>
+        <v>0.97960015364635633</v>
       </c>
       <c r="O35" s="0">
         <v>0</v>
@@ -7198,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="0">
-        <v>0</v>
+        <v>0.51112624007068708</v>
       </c>
       <c r="X35" s="0">
         <v>0</v>
@@ -7228,19 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0</v>
+        <v>0.73504973019999298</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0.50468863186839785</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>1</v>
+        <v>0.83408943367489008</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0.82320959983250019</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7303,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="BF35" s="0">
-        <v>0</v>
+        <v>0.71788089105286779</v>
       </c>
       <c r="BG35" s="0">
         <v>0</v>
@@ -7440,25 +7440,25 @@
         <v>0</v>
       </c>
       <c r="AI36" s="0">
-        <v>1</v>
+        <v>0.79797175735684145</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0</v>
+        <v>0.62429910822978685</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
       </c>
       <c r="AN36" s="0">
-        <v>0</v>
+        <v>0.71959510058664977</v>
       </c>
       <c r="AO36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP36" s="0">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>0</v>
       </c>
       <c r="AW36" s="0">
-        <v>0</v>
+        <v>0.86373509009565419</v>
       </c>
       <c r="AX36" s="0">
         <v>0</v>
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="AD37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE37" s="0">
         <v>0</v>
@@ -7643,22 +7643,22 @@
         <v>0</v>
       </c>
       <c r="AH37" s="0">
-        <v>1</v>
+        <v>0.8918469876871129</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0.89433128149665486</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0</v>
+        <v>0.66371138584082368</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0</v>
+        <v>0.71171393263759053</v>
       </c>
       <c r="AM37" s="0">
-        <v>0</v>
+        <v>0.60116030000566301</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="BP37" s="0">
-        <v>0</v>
+        <v>0.73601876912440545</v>
       </c>
     </row>
     <row r="38">
@@ -7774,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="0">
-        <v>0</v>
+        <v>0.95203389046332965</v>
       </c>
       <c r="J38" s="0">
         <v>0</v>
@@ -7837,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="AD38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE38" s="0">
         <v>0</v>
@@ -7855,22 +7855,22 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="0">
-        <v>0</v>
+        <v>0.82298477674625492</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0</v>
+        <v>0.64386399600179978</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP38" s="0">
         <v>0</v>
@@ -8004,13 +8004,13 @@
         <v>0</v>
       </c>
       <c r="Q39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39" s="0">
         <v>0</v>
       </c>
       <c r="S39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39" s="0">
         <v>0</v>
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="0">
-        <v>0</v>
+        <v>0.524984107656017</v>
       </c>
       <c r="Z39" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0</v>
+        <v>0.88757799654034386</v>
       </c>
       <c r="AL39" s="0">
-        <v>0</v>
+        <v>0.95681072424932068</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO39" s="0">
-        <v>0</v>
+        <v>0.91439347249515091</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8267,25 +8267,25 @@
         <v>0</v>
       </c>
       <c r="AJ40" s="0">
-        <v>0</v>
+        <v>0.73705733960544784</v>
       </c>
       <c r="AK40" s="0">
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0.80748503476365363</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8324,7 +8324,7 @@
         <v>0</v>
       </c>
       <c r="BC40" s="0">
-        <v>0</v>
+        <v>0.6964605854090804</v>
       </c>
       <c r="BD40" s="0">
         <v>0</v>
@@ -8473,28 +8473,28 @@
         <v>0</v>
       </c>
       <c r="AJ41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK41" s="0">
         <v>0</v>
       </c>
       <c r="AL41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0</v>
+        <v>0.91180273550958146</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0.67265216947716111</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0.72889362994620965</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0.7208862920844481</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8646,7 +8646,7 @@
         <v>0</v>
       </c>
       <c r="Y42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z42" s="0">
         <v>0</v>
@@ -8691,19 +8691,19 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0.83860886290377579</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8742,7 +8742,7 @@
         <v>0</v>
       </c>
       <c r="BE42" s="0">
-        <v>0</v>
+        <v>0.52548877042300035</v>
       </c>
       <c r="BF42" s="0">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="BL42" s="0">
-        <v>0</v>
+        <v>0.59666358940221398</v>
       </c>
       <c r="BM42" s="0">
         <v>0</v>
@@ -8772,10 +8772,10 @@
         <v>0</v>
       </c>
       <c r="BO42" s="0">
-        <v>0</v>
+        <v>0.74720178440871843</v>
       </c>
       <c r="BP42" s="0">
-        <v>0</v>
+        <v>0.84860910163086456</v>
       </c>
     </row>
     <row r="43">
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0.90248436652853881</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0.72214474813424379</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0.87501188405232244</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0.67151185731715568</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0.80901084116573951</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0.5829724103647278</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="BD44" s="0">
-        <v>0</v>
+        <v>0.761667947922819</v>
       </c>
       <c r="BE44" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0.98769164229439921</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0.93296874588443779</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0.62740359255912137</v>
       </c>
       <c r="AU45" s="0">
-        <v>0</v>
+        <v>0.61798876928977153</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9348,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="BA45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB45" s="0">
         <v>0</v>
@@ -9446,10 +9446,10 @@
         <v>0</v>
       </c>
       <c r="Q46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46" s="0">
-        <v>0</v>
+        <v>0.61188983458599777</v>
       </c>
       <c r="S46" s="0">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="AD46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE46" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0.81048230353688111</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0.62324623839373805</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0.92821103764955737</v>
       </c>
       <c r="AV46" s="0">
-        <v>0</v>
+        <v>0.60932378356099481</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9685,7 +9685,7 @@
         <v>0</v>
       </c>
       <c r="AB47" s="0">
-        <v>0</v>
+        <v>0.93887969771792634</v>
       </c>
       <c r="AC47" s="0">
         <v>0</v>
@@ -9736,19 +9736,19 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0</v>
+        <v>0.91399864334854009</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0.52967108840170329</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0.50492496894310268</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9879,7 +9879,7 @@
         <v>0</v>
       </c>
       <c r="X48" s="0">
-        <v>0</v>
+        <v>0.65618528224333073</v>
       </c>
       <c r="Y48" s="0">
         <v>0</v>
@@ -9900,7 +9900,7 @@
         <v>0</v>
       </c>
       <c r="AE48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF48" s="0">
         <v>0</v>
@@ -9945,19 +9945,19 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0</v>
+        <v>0.96538484830724403</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0.71222310102719377</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0</v>
+        <v>0.56586726289936706</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10043,7 +10043,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="0">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="AJ49" s="0">
-        <v>0</v>
+        <v>0.74344672650206278</v>
       </c>
       <c r="AK49" s="0">
         <v>0</v>
@@ -10154,19 +10154,19 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV49" s="0">
-        <v>0</v>
+        <v>0.7955544560043597</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0.9646447581624894</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10318,7 +10318,7 @@
         <v>0</v>
       </c>
       <c r="AG50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH50" s="0">
         <v>0</v>
@@ -10363,19 +10363,19 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0.61242603987540112</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0.58724015822285525</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10399,7 +10399,7 @@
         <v>0</v>
       </c>
       <c r="BH50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI50" s="0">
         <v>0</v>
@@ -10423,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="BP50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -10572,19 +10572,19 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0.91520350659220928</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0.97588462754527949</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0.92966153799387985</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0.5231230756598293</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10655,7 +10655,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="0">
-        <v>0</v>
+        <v>0.57303153219637737</v>
       </c>
       <c r="I52" s="0">
         <v>0</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="N52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52" s="0">
         <v>0</v>
@@ -10733,7 +10733,7 @@
         <v>0</v>
       </c>
       <c r="AH52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI52" s="0">
         <v>0</v>
@@ -10781,19 +10781,19 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0.80451608327600055</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0.5625509927565312</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0.88941863278427924</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10808,7 +10808,7 @@
         <v>0</v>
       </c>
       <c r="BG52" s="0">
-        <v>0</v>
+        <v>0.6277115672905702</v>
       </c>
       <c r="BH52" s="0">
         <v>0</v>
@@ -10870,7 +10870,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="0">
-        <v>0</v>
+        <v>0.71276085544514378</v>
       </c>
       <c r="L53" s="0">
         <v>0</v>
@@ -10972,7 +10972,7 @@
         <v>0</v>
       </c>
       <c r="AS53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT53" s="0">
         <v>0</v>
@@ -10990,19 +10990,19 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0.65622945552929779</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0.60646542792216063</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0.52874294688954349</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0.6155647242525224</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11118,7 +11118,7 @@
         <v>0</v>
       </c>
       <c r="Y54" s="0">
-        <v>0</v>
+        <v>0.92646902347231364</v>
       </c>
       <c r="Z54" s="0">
         <v>0</v>
@@ -11199,19 +11199,19 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0.57478938541313829</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0.827681552972792</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0.51363790892238503</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11258,13 +11258,13 @@
         <v>0</v>
       </c>
       <c r="C55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" s="0">
         <v>0</v>
       </c>
       <c r="E55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="0">
         <v>0</v>
@@ -11321,7 +11321,7 @@
         <v>0</v>
       </c>
       <c r="X55" s="0">
-        <v>0</v>
+        <v>0.54337403739183909</v>
       </c>
       <c r="Y55" s="0">
         <v>0</v>
@@ -11369,7 +11369,7 @@
         <v>0</v>
       </c>
       <c r="AN55" s="0">
-        <v>0</v>
+        <v>0.82100055233368896</v>
       </c>
       <c r="AO55" s="0">
         <v>0</v>
@@ -11408,19 +11408,19 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0.78127611591882751</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0.98281937228983463</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0.65530539088468243</v>
       </c>
       <c r="BE55" s="0">
-        <v>0</v>
+        <v>0.63365717561130253</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11500,7 +11500,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="0">
-        <v>0</v>
+        <v>0.76302615452623346</v>
       </c>
       <c r="P56" s="0">
         <v>0</v>
@@ -11587,7 +11587,7 @@
         <v>0</v>
       </c>
       <c r="AR56" s="0">
-        <v>0</v>
+        <v>0.59547820187514633</v>
       </c>
       <c r="AS56" s="0">
         <v>0</v>
@@ -11617,19 +11617,19 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0.67657171570754715</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0.91286137316452565</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11653,7 +11653,7 @@
         <v>0</v>
       </c>
       <c r="BN56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO56" s="0">
         <v>0</v>
@@ -11724,7 +11724,7 @@
         <v>0</v>
       </c>
       <c r="U57" s="0">
-        <v>0</v>
+        <v>0.88147567821479011</v>
       </c>
       <c r="V57" s="0">
         <v>0</v>
@@ -11787,7 +11787,7 @@
         <v>0</v>
       </c>
       <c r="AP57" s="0">
-        <v>0</v>
+        <v>0.82319517359845618</v>
       </c>
       <c r="AQ57" s="0">
         <v>0</v>
@@ -11826,19 +11826,19 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0</v>
+        <v>0.587392384417464</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0.60435287221432465</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11873,7 +11873,7 @@
         <v>0</v>
       </c>
       <c r="B58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" s="0">
         <v>0</v>
@@ -11972,7 +11972,7 @@
         <v>0</v>
       </c>
       <c r="AI58" s="0">
-        <v>0</v>
+        <v>0.66818925849569455</v>
       </c>
       <c r="AJ58" s="0">
         <v>0</v>
@@ -12035,19 +12035,19 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0.97848039929403186</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>0</v>
+        <v>0.68594877180311065</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12056,10 +12056,10 @@
         <v>0</v>
       </c>
       <c r="BK58" s="0">
-        <v>0</v>
+        <v>0.69649545154254233</v>
       </c>
       <c r="BL58" s="0">
-        <v>0</v>
+        <v>0.64346903103367481</v>
       </c>
       <c r="BM58" s="0">
         <v>0</v>
@@ -12085,7 +12085,7 @@
         <v>0</v>
       </c>
       <c r="D59" s="0">
-        <v>0</v>
+        <v>0.68910473394214478</v>
       </c>
       <c r="E59" s="0">
         <v>0</v>
@@ -12229,7 +12229,7 @@
         <v>0</v>
       </c>
       <c r="AZ59" s="0">
-        <v>0</v>
+        <v>0.52192328188857373</v>
       </c>
       <c r="BA59" s="0">
         <v>0</v>
@@ -12244,19 +12244,19 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>0</v>
+        <v>0.55382719822535931</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12282,7 +12282,7 @@
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>0</v>
+        <v>0.82054281000312157</v>
       </c>
       <c r="B60" s="0">
         <v>0</v>
@@ -12429,7 +12429,7 @@
         <v>0</v>
       </c>
       <c r="AX60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY60" s="0">
         <v>0</v>
@@ -12453,10 +12453,10 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
@@ -12465,7 +12465,7 @@
         <v>0</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0.59308474326995386</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12497,10 +12497,10 @@
         <v>0</v>
       </c>
       <c r="D61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" s="0">
-        <v>0</v>
+        <v>0.529451394216506</v>
       </c>
       <c r="F61" s="0">
         <v>0</v>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH61" s="0">
         <v>0</v>
@@ -12671,10 +12671,10 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0.58762143821274004</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12871,19 +12871,19 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0.57757255710257749</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0.54719651219681087</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0.98645594442322426</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12927,7 +12927,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="0">
-        <v>0</v>
+        <v>0.57126355818390395</v>
       </c>
       <c r="K63" s="0">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="BF63" s="0">
-        <v>0</v>
+        <v>0.50127122790381407</v>
       </c>
       <c r="BG63" s="0">
         <v>0</v>
@@ -13080,19 +13080,19 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0.61944875760642937</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0.51406261175020262</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0.88151220951304565</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13160,7 +13160,7 @@
         <v>0</v>
       </c>
       <c r="S64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T64" s="0">
         <v>0</v>
@@ -13229,7 +13229,7 @@
         <v>0</v>
       </c>
       <c r="AP64" s="0">
-        <v>0</v>
+        <v>0.54543484185219571</v>
       </c>
       <c r="AQ64" s="0">
         <v>0</v>
@@ -13277,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="BF64" s="0">
-        <v>0</v>
+        <v>0.76044114532941576</v>
       </c>
       <c r="BG64" s="0">
         <v>0</v>
@@ -13289,16 +13289,16 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0.98348855044908357</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0.5029498632044348</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0.81329971037801796</v>
       </c>
       <c r="BN64" s="0">
         <v>0</v>
@@ -13327,13 +13327,13 @@
         <v>0</v>
       </c>
       <c r="F65" s="0">
-        <v>0</v>
+        <v>0.61282117286425697</v>
       </c>
       <c r="G65" s="0">
         <v>0</v>
       </c>
       <c r="H65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" s="0">
         <v>0</v>
@@ -13360,7 +13360,7 @@
         <v>0</v>
       </c>
       <c r="Q65" s="0">
-        <v>0</v>
+        <v>0.95857658839526838</v>
       </c>
       <c r="R65" s="0">
         <v>0</v>
@@ -13405,7 +13405,7 @@
         <v>0</v>
       </c>
       <c r="AF65" s="0">
-        <v>0</v>
+        <v>0.51378887713753985</v>
       </c>
       <c r="AG65" s="0">
         <v>0</v>
@@ -13498,19 +13498,19 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0.96306217144888662</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0.87901645153230712</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13683,7 +13683,7 @@
         <v>0</v>
       </c>
       <c r="BD66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE66" s="0">
         <v>0</v>
@@ -13710,21 +13710,21 @@
         <v>0</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0</v>
+        <v>0.87275854368957551</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0.55751744563237449</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0.80230237146098449</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="W67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X67" s="0">
         <v>0</v>
@@ -13847,7 +13847,7 @@
         <v>0</v>
       </c>
       <c r="AP67" s="0">
-        <v>0</v>
+        <v>0.89770962161726997</v>
       </c>
       <c r="AQ67" s="0">
         <v>0</v>
@@ -13916,16 +13916,16 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0.81561181499350432</v>
       </c>
       <c r="BN67" s="0">
-        <v>0</v>
+        <v>0.76868942084096559</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -13957,7 +13957,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="0">
         <v>0</v>
@@ -14038,7 +14038,7 @@
         <v>0</v>
       </c>
       <c r="AK68" s="0">
-        <v>0</v>
+        <v>0.77642320503301931</v>
       </c>
       <c r="AL68" s="0">
         <v>0</v>
@@ -14053,7 +14053,7 @@
         <v>0</v>
       </c>
       <c r="AP68" s="0">
-        <v>0</v>
+        <v>0.62865435502078548</v>
       </c>
       <c r="AQ68" s="0">
         <v>0</v>
@@ -14077,7 +14077,7 @@
         <v>0</v>
       </c>
       <c r="AX68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0.61932598292227026</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject6.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject6.xlsx
@@ -134,7 +134,7 @@
         <v>0.88531050062956573</v>
       </c>
       <c r="C1" s="0">
-        <v>0.73488560221574795</v>
+        <v>0.89109567700462367</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -185,7 +185,7 @@
         <v>0</v>
       </c>
       <c r="T1" s="0">
-        <v>0.99666453494355323</v>
+        <v>0.99733591644918662</v>
       </c>
       <c r="U1" s="0">
         <v>0</v>
@@ -326,7 +326,7 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0.79573094850567816</v>
+        <v>0.80230237146098449</v>
       </c>
       <c r="BP1" s="0">
         <v>0</v>
@@ -334,16 +334,16 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.54740494782360394</v>
+        <v>0.88531050062956573</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.64144858164589369</v>
+        <v>0.67530291010070598</v>
       </c>
       <c r="D2" s="0">
-        <v>0.501117240916364</v>
+        <v>0.96075970327740723</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.93139852274727675</v>
+        <v>0.99458008699367817</v>
       </c>
       <c r="E3" s="0">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="0">
-        <v>0.55025271847923962</v>
+        <v>0.56923778774630429</v>
       </c>
       <c r="O3" s="0">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0.90645144399747857</v>
       </c>
       <c r="F4" s="0">
-        <v>0.63424918341278258</v>
+        <v>0.95304037942569453</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="BG4" s="0">
-        <v>0.52109775805129799</v>
+        <v>0.68910473394214478</v>
       </c>
       <c r="BH4" s="0">
         <v>0</v>
@@ -961,13 +961,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.5813240401275459</v>
+        <v>0.90645144399747857</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0.63138918047947978</v>
+        <v>0.88812135821974258</v>
       </c>
       <c r="G5" s="0">
         <v>0.65318026502646143</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0.57483175394979336</v>
+        <v>0.77757825191047147</v>
       </c>
       <c r="H6" s="0">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0.51969705738148342</v>
+        <v>0.65318026502646143</v>
       </c>
       <c r="F7" s="0">
         <v>0.77757825191047147</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="0">
-        <v>0.50344117348245987</v>
+        <v>0.57954532768864686</v>
       </c>
       <c r="X7" s="0">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>0.76067272016598997</v>
+        <v>0.78505219462538922</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0.77085412752634319</v>
       </c>
       <c r="J8" s="0">
-        <v>0.73167952992251584</v>
+        <v>0.98667463951463241</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1797,13 +1797,13 @@
         <v>0</v>
       </c>
       <c r="H9" s="0">
-        <v>0.54767073972747493</v>
+        <v>0.77085412752634319</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0.78585323816119779</v>
+        <v>0.89799542238828112</v>
       </c>
       <c r="K9" s="0">
         <v>0.59440384699857507</v>
@@ -1887,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="AL9" s="0">
-        <v>0.58575603490936901</v>
+        <v>0.95203389046332965</v>
       </c>
       <c r="AM9" s="0">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>0.56090598785421164</v>
+        <v>0.6434675435793018</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="Z10" s="0">
-        <v>0.53050730952217406</v>
+        <v>0.84210377983060969</v>
       </c>
       <c r="AA10" s="0">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0.56813774920950766</v>
+        <v>0.59440384699857507</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="BA11" s="0">
-        <v>0.69185577353378402</v>
+        <v>0.71276085544514378</v>
       </c>
       <c r="BB11" s="0">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>0.8183789176202142</v>
       </c>
       <c r="N12" s="0">
-        <v>0.54391952732006521</v>
+        <v>0.78103138439626008</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="0">
-        <v>0.68916103636760195</v>
+        <v>0.87316050407382551</v>
       </c>
       <c r="AC12" s="0">
         <v>0</v>
@@ -2633,16 +2633,16 @@
         <v>0</v>
       </c>
       <c r="L13" s="0">
-        <v>0.53335640489422353</v>
+        <v>0.8183789176202142</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0.58994256845726167</v>
+        <v>0.94152123273478794</v>
       </c>
       <c r="O13" s="0">
-        <v>0.64629209566089185</v>
+        <v>0.98180200849469546</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="0">
-        <v>0.70644075818260288</v>
+        <v>0.952223360151076</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="0">
-        <v>0.60723711053073814</v>
+        <v>0.97960015364635633</v>
       </c>
       <c r="AJ14" s="0">
         <v>0</v>
@@ -3060,10 +3060,10 @@
         <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>0.5924712300880377</v>
+        <v>0.68806104569387183</v>
       </c>
       <c r="R15" s="0">
-        <v>0.52951929457875235</v>
+        <v>0.78537975449466302</v>
       </c>
       <c r="S15" s="0">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0.84642255245641751</v>
+        <v>0.89256510802341005</v>
       </c>
       <c r="R16" s="0">
         <v>0</v>
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="AC16" s="0">
-        <v>0.66909890263552652</v>
+        <v>0.7188194214105621</v>
       </c>
       <c r="AD16" s="0">
         <v>0</v>
@@ -3616,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="BM17" s="0">
-        <v>0.55529848192117348</v>
+        <v>0.95857658839526838</v>
       </c>
       <c r="BN17" s="0">
         <v>0</v>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="0">
-        <v>0.55080956543381077</v>
+        <v>0.87454913667839473</v>
       </c>
       <c r="J18" s="0">
         <v>0</v>
@@ -3678,13 +3678,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.53127389975059147</v>
+        <v>0.80345875171023706</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0.52307753703060766</v>
+        <v>0.75260658497422717</v>
       </c>
       <c r="T18" s="0">
         <v>0</v>
@@ -4096,13 +4096,13 @@
         <v>0</v>
       </c>
       <c r="S20" s="0">
-        <v>0.55806468367571704</v>
+        <v>0.6127663893817733</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>0.5610538988264111</v>
+        <v>0.90750933236109099</v>
       </c>
       <c r="V20" s="0">
         <v>0</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="AB20" s="0">
-        <v>0.71334420510313312</v>
+        <v>0.99217558660185012</v>
       </c>
       <c r="AC20" s="0">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>0.63376421008245476</v>
+        <v>0.79175368545892444</v>
       </c>
       <c r="T21" s="0">
         <v>0.90750933236109099</v>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0.63935883706103491</v>
+        <v>0.69450048230431305</v>
       </c>
       <c r="W21" s="0">
         <v>0.9157184995986396</v>
@@ -4416,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="BE21" s="0">
-        <v>0.71072238679846045</v>
+        <v>0.88147567821479011</v>
       </c>
       <c r="BF21" s="0">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>0.88604890167777928</v>
       </c>
       <c r="X22" s="0">
-        <v>0.77271200628714087</v>
+        <v>0.78397457811843063</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="0">
-        <v>0.78191953807303216</v>
+        <v>0.79572621674017818</v>
       </c>
       <c r="L23" s="0">
         <v>0</v>
@@ -4720,10 +4720,10 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>0.87642376297126079</v>
+        <v>0.9157184995986396</v>
       </c>
       <c r="V23" s="0">
-        <v>0.66188314355925426</v>
+        <v>0.88604890167777928</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="0">
-        <v>0.74373091572497607</v>
+        <v>0.78657466555481204</v>
       </c>
       <c r="AD23" s="0">
         <v>0</v>
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="AG24" s="0">
-        <v>0.88214333377794141</v>
+        <v>0.97040099149278591</v>
       </c>
       <c r="AH24" s="0">
         <v>0</v>
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="AV24" s="0">
-        <v>0.64160327525786975</v>
+        <v>0.65618528224333073</v>
       </c>
       <c r="AW24" s="0">
         <v>0</v>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>0.66876372590576272</v>
+        <v>0.80971444677970439</v>
       </c>
       <c r="AA25" s="0">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="BB25" s="0">
-        <v>0.62302819078241622</v>
+        <v>0.92646902347231364</v>
       </c>
       <c r="BC25" s="0">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="Z27" s="0">
-        <v>0.74498099451709943</v>
+        <v>0.89534648739715172</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0.98802646416572559</v>
       </c>
       <c r="AC27" s="0">
-        <v>0.79383426188138229</v>
+        <v>0.8234207225900585</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="0">
-        <v>0.7800176263237879</v>
+        <v>0.98802646416572559</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5828,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="AU28" s="0">
-        <v>0.59659398381469986</v>
+        <v>0.93887969771792634</v>
       </c>
       <c r="AV28" s="0">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0.98698669174061182</v>
       </c>
       <c r="AF30" s="0">
-        <v>0.87084412746744921</v>
+        <v>0.97377271948247368</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6392,10 +6392,10 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0.64295141484022145</v>
+        <v>0.92111646015200899</v>
       </c>
       <c r="AD31" s="0">
-        <v>0.51956538363720506</v>
+        <v>0.98698669174061182</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
@@ -6580,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="0">
-        <v>0.63454532766510019</v>
+        <v>0.64124658824381098</v>
       </c>
       <c r="X32" s="0">
         <v>0</v>
@@ -6604,7 +6604,7 @@
         <v>0.97377271948247368</v>
       </c>
       <c r="AE32" s="0">
-        <v>0.64674298527028173</v>
+        <v>0.79455270016985069</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
@@ -6613,7 +6613,7 @@
         <v>0.92463913776961626</v>
       </c>
       <c r="AH32" s="0">
-        <v>0.71996047878832437</v>
+        <v>0.99985049390785963</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6810,10 +6810,10 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0.56034975604994508</v>
+        <v>0.66055691379295112</v>
       </c>
       <c r="AF33" s="0">
-        <v>0.78876378153250204</v>
+        <v>0.92463913776961626</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
@@ -7198,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="0">
-        <v>0.51112624007068708</v>
+        <v>0.59834815792857721</v>
       </c>
       <c r="X35" s="0">
         <v>0</v>
@@ -7228,10 +7228,10 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0.73504973019999298</v>
+        <v>0.97856398805539757</v>
       </c>
       <c r="AH35" s="0">
-        <v>0.50468863186839785</v>
+        <v>0.50796778821360555</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0.83408943367489008</v>
       </c>
       <c r="AK35" s="0">
-        <v>0.82320959983250019</v>
+        <v>0.89433128149665486</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7440,13 +7440,13 @@
         <v>0</v>
       </c>
       <c r="AI36" s="0">
-        <v>0.79797175735684145</v>
+        <v>0.83408943367489008</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0.62429910822978685</v>
+        <v>0.66371138584082368</v>
       </c>
       <c r="AL36" s="0">
         <v>0</v>
@@ -7455,7 +7455,7 @@
         <v>0</v>
       </c>
       <c r="AN36" s="0">
-        <v>0.71959510058664977</v>
+        <v>0.73705733960544784</v>
       </c>
       <c r="AO36" s="0">
         <v>0</v>
@@ -7643,7 +7643,7 @@
         <v>0</v>
       </c>
       <c r="AH37" s="0">
-        <v>0.8918469876871129</v>
+        <v>0.95771731859823572</v>
       </c>
       <c r="AI37" s="0">
         <v>0.89433128149665486</v>
@@ -7655,10 +7655,10 @@
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0.71171393263759053</v>
+        <v>0.82298477674625492</v>
       </c>
       <c r="AM37" s="0">
-        <v>0.60116030000566301</v>
+        <v>0.88757799654034386</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="BP37" s="0">
-        <v>0.73601876912440545</v>
+        <v>0.77642320503301931</v>
       </c>
     </row>
     <row r="38">
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0.64386399600179978</v>
+        <v>0.95681072424932068</v>
       </c>
       <c r="AN38" s="0">
         <v>0</v>
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="0">
-        <v>0.524984107656017</v>
+        <v>0.93305807452199818</v>
       </c>
       <c r="Z39" s="0">
         <v>0</v>
@@ -8324,7 +8324,7 @@
         <v>0</v>
       </c>
       <c r="BC40" s="0">
-        <v>0.6964605854090804</v>
+        <v>0.82100055233368896</v>
       </c>
       <c r="BD40" s="0">
         <v>0</v>
@@ -8482,19 +8482,19 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0.91180273550958146</v>
+        <v>0.91439347249515091</v>
       </c>
       <c r="AN41" s="0">
-        <v>0.67265216947716111</v>
+        <v>0.80748503476365363</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>0.72889362994620965</v>
+        <v>0.83860886290377579</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0.7208862920844481</v>
+        <v>0.90248436652853881</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8742,7 +8742,7 @@
         <v>0</v>
       </c>
       <c r="BE42" s="0">
-        <v>0.52548877042300035</v>
+        <v>0.82319517359845618</v>
       </c>
       <c r="BF42" s="0">
         <v>0</v>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="BO42" s="0">
-        <v>0.74720178440871843</v>
+        <v>0.89770962161726997</v>
       </c>
       <c r="BP42" s="0">
         <v>0.84860910163086456</v>
@@ -8912,7 +8912,7 @@
         <v>0.72214474813424379</v>
       </c>
       <c r="AS43" s="0">
-        <v>0.87501188405232244</v>
+        <v>0.98769164229439921</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9112,16 +9112,16 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="0">
-        <v>0.67151185731715568</v>
+        <v>0.72214474813424379</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>0.80901084116573951</v>
+        <v>0.93296874588443779</v>
       </c>
       <c r="AT44" s="0">
-        <v>0.5829724103647278</v>
+        <v>0.81048230353688111</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>0.62740359255912137</v>
       </c>
       <c r="AU45" s="0">
-        <v>0.61798876928977153</v>
+        <v>0.91399864334854009</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="R46" s="0">
-        <v>0.61188983458599777</v>
+        <v>0.66821789769189177</v>
       </c>
       <c r="S46" s="0">
         <v>0</v>
@@ -9530,7 +9530,7 @@
         <v>0.81048230353688111</v>
       </c>
       <c r="AS46" s="0">
-        <v>0.62324623839373805</v>
+        <v>0.62740359255912137</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0.92821103764955737</v>
       </c>
       <c r="AV46" s="0">
-        <v>0.60932378356099481</v>
+        <v>0.96538484830724403</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9739,13 +9739,13 @@
         <v>0.91399864334854009</v>
       </c>
       <c r="AT47" s="0">
-        <v>0.52967108840170329</v>
+        <v>0.92821103764955737</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>0.50492496894310268</v>
+        <v>0.71222310102719377</v>
       </c>
       <c r="AW47" s="0">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0.56586726289936706</v>
+        <v>0.7955544560043597</v>
       </c>
       <c r="AX48" s="0">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="AJ49" s="0">
-        <v>0.74344672650206278</v>
+        <v>0.86373509009565419</v>
       </c>
       <c r="AK49" s="0">
         <v>0</v>
@@ -10372,10 +10372,10 @@
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>0.61242603987540112</v>
+        <v>0.97588462754527949</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0.58724015822285525</v>
+        <v>0.80451608327600055</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>0.91520350659220928</v>
+        <v>0.9646447581624894</v>
       </c>
       <c r="AX51" s="0">
         <v>0.97588462754527949</v>
@@ -10584,7 +10584,7 @@
         <v>0.92966153799387985</v>
       </c>
       <c r="BA51" s="0">
-        <v>0.5231230756598293</v>
+        <v>0.65622945552929779</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10655,7 +10655,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="0">
-        <v>0.57303153219637737</v>
+        <v>0.99027759938293314</v>
       </c>
       <c r="I52" s="0">
         <v>0</v>
@@ -10784,7 +10784,7 @@
         <v>0.80451608327600055</v>
       </c>
       <c r="AY52" s="0">
-        <v>0.5625509927565312</v>
+        <v>0.92966153799387985</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
@@ -10993,16 +10993,16 @@
         <v>0.65622945552929779</v>
       </c>
       <c r="AZ53" s="0">
-        <v>0.60646542792216063</v>
+        <v>0.88941863278427924</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0.52874294688954349</v>
+        <v>0.57478938541313829</v>
       </c>
       <c r="BC53" s="0">
-        <v>0.6155647242525224</v>
+        <v>0.78127611591882751</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11208,10 +11208,10 @@
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0.827681552972792</v>
+        <v>0.98281937228983463</v>
       </c>
       <c r="BD54" s="0">
-        <v>0.51363790892238503</v>
+        <v>0.67657171570754715</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11321,7 +11321,7 @@
         <v>0</v>
       </c>
       <c r="X55" s="0">
-        <v>0.54337403739183909</v>
+        <v>0.57254219664857797</v>
       </c>
       <c r="Y55" s="0">
         <v>0</v>
@@ -11417,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0.65530539088468243</v>
+        <v>0.91286137316452565</v>
       </c>
       <c r="BE55" s="0">
         <v>0.63365717561130253</v>
@@ -11500,7 +11500,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="0">
-        <v>0.76302615452623346</v>
+        <v>0.9671643501706193</v>
       </c>
       <c r="P56" s="0">
         <v>0</v>
@@ -11587,7 +11587,7 @@
         <v>0</v>
       </c>
       <c r="AR56" s="0">
-        <v>0.59547820187514633</v>
+        <v>0.761667947922819</v>
       </c>
       <c r="AS56" s="0">
         <v>0</v>
@@ -11826,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0.587392384417464</v>
+        <v>0.63365717561130253</v>
       </c>
       <c r="BD57" s="0">
         <v>0</v>
@@ -11835,7 +11835,7 @@
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>0.60435287221432465</v>
+        <v>0.97848039929403186</v>
       </c>
       <c r="BG57" s="0">
         <v>0</v>
@@ -11972,7 +11972,7 @@
         <v>0</v>
       </c>
       <c r="AI58" s="0">
-        <v>0.66818925849569455</v>
+        <v>0.71788089105286779</v>
       </c>
       <c r="AJ58" s="0">
         <v>0</v>
@@ -12059,7 +12059,7 @@
         <v>0.69649545154254233</v>
       </c>
       <c r="BL58" s="0">
-        <v>0.64346903103367481</v>
+        <v>0.76044114532941576</v>
       </c>
       <c r="BM58" s="0">
         <v>0</v>
@@ -12229,7 +12229,7 @@
         <v>0</v>
       </c>
       <c r="AZ59" s="0">
-        <v>0.52192328188857373</v>
+        <v>0.6277115672905702</v>
       </c>
       <c r="BA59" s="0">
         <v>0</v>
@@ -12247,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>0.55382719822535931</v>
+        <v>0.68594877180311065</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
@@ -12282,7 +12282,7 @@
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>0.82054281000312157</v>
+        <v>0.92514520478040452</v>
       </c>
       <c r="B60" s="0">
         <v>0</v>
@@ -12500,7 +12500,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="0">
-        <v>0.529451394216506</v>
+        <v>0.91463519754082434</v>
       </c>
       <c r="F61" s="0">
         <v>0</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>0.58762143821274004</v>
+        <v>0.61944875760642937</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0.57757255710257749</v>
+        <v>0.59308474326995386</v>
       </c>
       <c r="BI62" s="0">
         <v>0</v>
@@ -12927,7 +12927,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="0">
-        <v>0.57126355818390395</v>
+        <v>0.72875502172492057</v>
       </c>
       <c r="K63" s="0">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="BF63" s="0">
-        <v>0.50127122790381407</v>
+        <v>0.69649545154254233</v>
       </c>
       <c r="BG63" s="0">
         <v>0</v>
@@ -13083,7 +13083,7 @@
         <v>0.61944875760642937</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0.51406261175020262</v>
+        <v>0.54719651219681087</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
@@ -13229,7 +13229,7 @@
         <v>0</v>
       </c>
       <c r="AP64" s="0">
-        <v>0.54543484185219571</v>
+        <v>0.59666358940221398</v>
       </c>
       <c r="AQ64" s="0">
         <v>0</v>
@@ -13289,16 +13289,16 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>0.98348855044908357</v>
+        <v>0.98645594442322426</v>
       </c>
       <c r="BK64" s="0">
-        <v>0.5029498632044348</v>
+        <v>0.88151220951304565</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0.81329971037801796</v>
+        <v>0.96306217144888662</v>
       </c>
       <c r="BN64" s="0">
         <v>0</v>
@@ -13327,7 +13327,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="0">
-        <v>0.61282117286425697</v>
+        <v>0.66350196990168486</v>
       </c>
       <c r="G65" s="0">
         <v>0</v>
@@ -13405,7 +13405,7 @@
         <v>0</v>
       </c>
       <c r="AF65" s="0">
-        <v>0.51378887713753985</v>
+        <v>0.90158014801775721</v>
       </c>
       <c r="AG65" s="0">
         <v>0</v>
@@ -13719,7 +13719,7 @@
         <v>0.87275854368957551</v>
       </c>
       <c r="BP66" s="0">
-        <v>0.55751744563237449</v>
+        <v>0.61932598292227026</v>
       </c>
     </row>
     <row r="67">
@@ -13916,10 +13916,10 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0.81561181499350432</v>
+        <v>0.87901645153230712</v>
       </c>
       <c r="BN67" s="0">
-        <v>0.76868942084096559</v>
+        <v>0.87275854368957551</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
@@ -14053,7 +14053,7 @@
         <v>0</v>
       </c>
       <c r="AP68" s="0">
-        <v>0.62865435502078548</v>
+        <v>0.84860910163086456</v>
       </c>
       <c r="AQ68" s="0">
         <v>0</v>
